--- a/biology/Zoologie/Craugastor_laticeps/Craugastor_laticeps.xlsx
+++ b/biology/Zoologie/Craugastor_laticeps/Craugastor_laticeps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Craugastor laticeps est une espèce d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Craugastor laticeps est une espèce d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre de 50 à 1 600 m d'altitude au Mexique, dans la Sierra de los Tuxtlas dans le sud de l'État de Veracruz et au Chiapas, au Guatemala, au Belize et dans le nord du Honduras[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre de 50 à 1 600 m d'altitude au Mexique, dans la Sierra de los Tuxtlas dans le sud de l'État de Veracruz et au Chiapas, au Guatemala, au Belize et dans le nord du Honduras.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Duméril, 1853 : Mémoire sur les Batraciens anoures de la famille des Hylaeformes ou Rainettes, comprenant la description d'un genre nouveau et de onze espèces nouvelles. Annales Des Sciences Naturelles, sér. 3, vol. 19, p. 135-179 (texte intégral).</t>
         </is>
